--- a/REGULAR/ONT/DELA CRUZ, SHEILA G..xlsx
+++ b/REGULAR/ONT/DELA CRUZ, SHEILA G..xlsx
@@ -1933,12 +1933,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K492"/>
+  <dimension ref="A2:N492"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A432" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K450" sqref="K450"/>
+      <selection activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="N459" sqref="N459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1956,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2028,7 +2028,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2041,7 +2041,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2058,7 +2058,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2102,7 +2102,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>107.73099999999988</v>
+        <v>108.98099999999988</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2112,12 +2112,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>220.17500000000001</v>
+        <v>221.42500000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>70</v>
       </c>
@@ -2135,7 +2136,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35582</v>
       </c>
@@ -2155,7 +2156,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>35612</v>
       </c>
@@ -2175,7 +2176,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>35643</v>
       </c>
@@ -2195,7 +2196,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>35674</v>
       </c>
@@ -2215,7 +2216,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>35704</v>
       </c>
@@ -2235,7 +2236,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>35735</v>
       </c>
@@ -11726,15 +11727,17 @@
       <c r="B450" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C450" s="13"/>
+      <c r="C450" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D450" s="39">
         <v>1</v>
       </c>
       <c r="E450" s="9"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G450" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H450" s="39"/>
       <c r="I450" s="9"/>
@@ -12614,7 +12617,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>327.90599999999989</v>
+        <v>330.40599999999989</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
